--- a/main/macron_lowline_norm/data.xlsx
+++ b/main/macron_lowline_norm/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ḵ</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>X̲</t>
+  </si>
+  <si>
+    <t>a̱</t>
+  </si>
+  <si>
+    <t>a̲</t>
+  </si>
+  <si>
+    <t>A̱</t>
+  </si>
+  <si>
+    <t>A̲</t>
   </si>
 </sst>
 </file>
@@ -383,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -407,7 +419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -415,7 +427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -423,7 +435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -431,12 +443,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
